--- a/biology/Microbiologie/Jaroschiidae/Jaroschiidae.xlsx
+++ b/biology/Microbiologie/Jaroschiidae/Jaroschiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jaroschiidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Bryometopida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Jaroschia, nommé en hommage à Robert Jarosch[1], chercheur à l'Institut de physiologie végétale de l'Université de Salzbourg, ou exerça Wilhelm Foissner (d). Jarosch étudia notamment les fibrilles protoplasmiques des algues Characées[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Jaroschia, nommé en hommage à Robert Jarosch, chercheur à l'Institut de physiologie végétale de l'Université de Salzbourg, ou exerça Wilhelm Foissner (d). Jarosch étudia notamment les fibrilles protoplasmiques des algues Characées.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme Bryometopus triquetrus (famille des Bryometopidae), Jaroschia sumptuosa a été découvert au jardin botanique de la ville de Castelton, au nord de Kingston (Jamaïque), dans une boue de souches de bambous[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme Bryometopus triquetrus (famille des Bryometopidae), Jaroschia sumptuosa a été découvert au jardin botanique de la ville de Castelton, au nord de Kingston (Jamaïque), dans une boue de souches de bambous.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (8 octobre 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (8 octobre 2022) :
 Dapedophrya Foissner, 1995
 Jaroschia Foissner, 1993 : ce genre est monotypique
 Espèce type : Jaroschia sumptuosa Foissner, 1993
@@ -607,9 +625,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Jaroschiidae a été créée en 1993 par le botaniste et professeur autrichien Wilhelm Foissner (d) (1948-2020)[5],[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Jaroschiidae a été créée en 1993 par le botaniste et professeur autrichien Wilhelm Foissner (d) (1948-2020),.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Wilhelm Foissner, Protozoenfauna : Colpodea (Ciliophora), vol. 4, t. 1, Stuggart, Gustav Fischer Verlag, mai 1993, 808 p. (ISBN 978-3-8274-0839-6).</t>
         </is>
